--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/11_Aydın_2022.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/11_Aydın_2022.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\İllere Göre Tahsilat Tahakkuk 2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{21375550-CB24-4562-8D24-CA08456E2699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{725BD16A-D385-4A99-A18D-AFE596C21DD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8544" yWindow="6144" windowWidth="6528" windowHeight="5280" tabRatio="662" xr2:uid="{D3F8C6E9-2201-4EA1-A20D-2746514667B7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="662" xr2:uid="{D5B3CEA6-631A-4008-B0B2-92D653E9DA43}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK " sheetId="114" r:id="rId1"/>
@@ -974,13 +974,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{B5158961-3F6B-41A1-9D7B-5BE88CE84154}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{2747AF29-7EB1-4CAC-9AF7-AC560C94208C}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{A65BA2A1-D41A-4948-B4B7-8FAEFE7DA975}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{973F0863-B762-4BBC-8883-B75F135B1530}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{51F892C5-F496-469D-8E33-8393DEA45CA7}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{3091F39F-FBCC-483E-BC6C-FF8B4E589C22}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{FBAD8089-5EA2-4FAE-8349-04214835EAA1}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{33CC12BE-7970-4B35-B50D-DB7DB38C42AF}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{D852888B-9E29-4AE9-99B4-2C20360B7DA6}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{307CC01F-CB7B-4E90-A9A6-B85BA6FE73E1}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{F0270927-DCE4-4355-B354-08E65BC3368F}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{3D105247-BD37-49D1-A57F-6E3503B058B5}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{D5A1339E-F1E5-4485-8BF5-60584A9EC7A4}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{56F56E5E-72A8-4E5C-96DC-61AA030DE1AD}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1350,7 +1350,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E44FE7D4-E259-4D30-AE63-4DE278B0BC13}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0414CD6E-9BD1-477D-8CD6-EB5313DA2B7E}">
   <dimension ref="B2:F106"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2666,17 +2666,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{73574F95-2C2C-4967-870B-723CD6F61170}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C114E3A9-84D0-4F09-9ECD-34CDB810B8FB}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{24BDDB95-6867-49E2-9F70-C99948F92791}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E8A8A645-33E6-4FA9-BCE2-87B7ABED9D2C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D8608777-CB65-4FCB-BA7B-828E71D10422}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4ED4E45F-9577-4758-899D-493CF0D03332}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F1D2FA62-7714-4F75-88C0-E88DFA8599BB}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{82871EC3-072C-48A4-8BC8-E81782C00638}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{96D94849-3B6D-4CC1-9FCF-12A9A329500C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{CF69C4BB-928F-4316-B23B-743B21A1F76F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{143A1DEF-8F68-4966-8A44-13C733F09146}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{47081F0A-FC51-458A-8903-E2E37815CEC4}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C3928A0A-9C96-4F0B-B350-C83CDDC870BD}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{9585EBDC-38B6-4C88-AF87-151F93BE9DFD}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0B825976-8F46-450C-80A5-3D2C7D571404}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D1DEB82F-B204-4BAE-AD8C-A004904B788D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{BA3ED035-0DBE-4F8A-A05E-75F0914F790F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6BB05EB9-B55D-44CB-A2EA-352CC73731F4}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1FA74FAE-0AF7-4FEA-A863-94686B77102F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{D1E42950-279F-4281-BBBB-0A1462ACE651}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{58936E72-9ADA-43F5-A58A-4F386C467AF4}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2D8553A2-3D6A-4779-9C7C-C32489F0C6A8}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2689,7 +2689,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BFF97CB-E168-4323-BD37-F80AC0773E89}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{853F930E-78E0-46B3-BDB8-DBFDAEE68F99}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -3989,17 +3989,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E742ECAD-D91D-4561-89EC-C9091561C23B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{74CE0E46-76D4-4AF7-9970-D8463CF8B4F6}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{96518B94-F36B-432A-81CD-98FBF1FE9A79}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B7F2035B-B970-4483-969A-A3CED0F95869}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A495F2AE-779D-4AC2-A3C4-A62D46D50AC8}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{93B44158-E33E-4116-A1BF-4B449CBBB2B5}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{77E6ABCD-6984-4063-94C4-E8346A4BA690}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5ED001F5-99C8-4DC9-AD9A-7F3E52C3A716}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{279E6778-D0F9-4A37-A1EE-53F8684D4DDF}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{9D50BD64-7FEF-4C22-BE85-522376115EC7}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{175117AB-F1D3-4610-8006-A1FC3045DBBE}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3F237A8C-2AEB-4748-B8F2-9689EAC2CFC7}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DD3A68BB-E613-461C-A73F-EE866A1EEFA1}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{16A95C37-040F-4744-82FF-2FAA7A53E0F0}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8BA43B23-835D-4B92-9452-F9272743055C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C875804B-0986-4690-9296-D1ACE63415A9}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2CB58AC9-DF41-407C-ADAC-DAEF6E4DB961}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{52E8B1AC-4BD7-4C97-BDE6-229DDC2ED66C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{71B6792D-EBFF-4F80-9B02-18834868DBCA}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{CEF26D2C-AF22-491B-87C0-5ED3711218D3}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{24152CCC-C1AC-4131-A915-7F35F6498175}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{86B113B7-BDD6-423A-A2B4-42B1BBCED454}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -4012,7 +4012,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABA897C5-DB85-4653-B1FD-49D281114EE9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{878CC4D4-8E0C-4C3D-913A-B6A1B8553F1A}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -5312,17 +5312,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FC725770-340F-4831-B73F-1CFBCCD8BD56}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C79E4ABB-D73D-4363-B5D8-69B29C3147AA}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B25C7DCE-707E-4715-9165-C8EDD44E2DD3}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E3EB454C-6EFC-43A3-AC33-9558A9A33FD5}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{96E4B214-E9DC-43EB-916F-28ACBDA46688}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{312A26B1-17B8-4E82-935A-2593A3E02FA8}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DEEA7C04-C2B0-462F-A7FE-810990760CF6}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8E0A353E-F714-4B6E-B837-278354D0F3D6}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{9EE8F422-9298-4B37-AB24-7A325574DDCD}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{4164EDCD-5EE5-4187-A4F8-28380746DE93}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{11D6DEE0-A9B2-43AD-B7D2-9552CF2566D5}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{06CD6029-39AA-4474-B421-DF5DF4C6A1EB}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9F58F518-84DE-485B-9210-60D36B0134A9}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{85C0C1B0-4B34-454E-AADA-8860AA83E6E2}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{CB264E8F-940A-44E4-A322-F2177FD7108B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3544984B-142F-4943-BAEE-4A15AF7C4E2D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{22C092FB-D894-4BBA-9C96-F7C4C90A664E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A25E9C70-2AE1-4BCF-B9B2-F43DC3A7273A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{316254D8-A293-46F3-818B-298D25C12F76}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{8B69E580-79D8-40CC-8731-7F1B3CA1BD41}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{43EF4970-DA97-4F27-BF79-5722AA17C761}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E7294CB4-38E2-4F23-ACDB-AD4D44899FB6}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5335,7 +5335,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50D6D3DE-9DE0-4DD3-8C8B-5288EDEA5605}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B5D335C-391B-4737-A72B-DCD0D04F2DB1}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -6629,17 +6629,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1414EDF7-963C-4F9D-894C-9855AE4737DA}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{42DD5827-EEA6-4AAB-B3BB-1EE4DC86B193}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{3419BE50-2AD3-4E68-A978-FF8758D313F6}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{426B43B8-87E8-42F1-A75F-5AB64D26C982}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D76D61FD-0C53-4334-B19F-9314BA8BC8E8}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{BAFB9E63-F6CE-43DF-ADD3-C8E634FCA649}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F3F4D31B-8E65-4CD8-93B1-14E71C28A55F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{95679FEB-28B9-4151-A18E-3BEAEF8EE3AA}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{DDDBCAED-8784-4B13-BA73-70DC97275A3E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{CAC32335-432E-45BC-8FCF-AAD3F01AF93F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FC52A7AE-679E-4610-B0E5-E288979662DD}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1447BF73-3E77-4A83-B00C-65D66C06CD56}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{67A89070-4050-40F6-AB5E-80004E350E6D}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{72EA5F18-1863-42F8-8B3C-31D28B6882DE}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5F51B375-4064-413D-BD6C-8E12C76F04D4}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{305E2F40-AF56-4261-9142-B53157826724}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4B5C3B60-8610-449E-8020-A933786128CB}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B0FE7BB3-0D7E-4838-B92E-9A5D91B9FA9F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A55289C0-199C-4E47-B41B-A8C87C945847}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{54D6F1A3-F25A-44FF-822D-329F6EA30C97}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{86DDEF03-FCEC-4C8C-A860-FA25F35631C0}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{02522D2E-22FD-40A8-8185-25999BDF9C77}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6652,7 +6652,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E47E87CA-9F07-49A4-9731-7152DFB980AB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E80BA56-6DE4-4AE8-A02E-80B391E86678}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7961,17 +7961,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CB0E4485-F22E-4AB5-80F9-EA6A61727F62}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BDD52F4D-E3B1-4243-ADE9-B6E8A68C9194}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{CB829B32-445E-48BC-B6F8-5C8E4F52AFF5}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8A90A9C3-40AB-4138-8E8A-E8340B6F2FF2}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6A74D5D9-7FC9-4C7A-9F6E-DE3717B4BB13}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B58C3487-C368-4446-B5AF-D601842FF33F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D1265E01-C301-47F2-BD2D-B43DC2CF3A0F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A1DE3D8C-994B-464A-BD1C-24C177ADBC76}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{5A436FDF-412F-46B5-AE0B-0C13DFB783D2}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{BF5A1028-4A53-4D9E-9AA3-D97698939293}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EAADBFDA-31AE-4B96-957F-9EEE16F8E1B0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1628CD2F-61FB-4D45-A864-FAEC5A0E61A2}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EA2AD559-A917-42ED-A7D0-E6B0A1E974D4}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F2DD71BA-3F4D-46E1-8C3D-739C05F7F8BE}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{4C3F680A-57AA-475B-AFD1-59A1BAF09200}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E2109395-1707-4B90-AD0F-B13DE9DA6AA2}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8598993F-0317-4F13-8735-CF5B8112A0EF}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{933D90D1-6734-44AB-90BC-9CAEA77FC319}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{51109D80-D93D-45AD-949E-879C4D33CD2A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{F9EE0D7E-40B3-41C0-A5DF-DEE8F029F1FD}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{2DC88A24-CFEB-41A6-9F15-7B47E8C84D37}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DB38EA5A-C0BA-46F9-80EC-E4A852E96B70}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7984,7 +7984,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD1FDEE4-00EA-4EF6-8D61-383C1D34605C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7B0576F-AD59-4A18-BB37-1603C0FEB28D}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A49" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9285,17 +9285,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AE088B30-78AF-4E94-B0BB-13631FC9724E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{51CD1826-141D-4D4E-A9D8-57BB597584A6}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{3FA3428F-999E-4759-B9D9-0A3114436F9B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{23CB4A33-E068-4EE2-8FF0-C3081F3F54F7}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C3702FF8-3DD9-4CAB-B63D-427BA471394D}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6772CFE2-9C40-4EB5-BC54-D7A8FF7DB7DF}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FE7F7267-2E51-4990-B288-275C04A72338}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{82BDAA59-C7A9-4332-BA1A-6F2F763F918E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{9AB866B2-0DDA-4A25-941C-5A4A0149346F}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{726F83CC-314C-4EDF-9EA5-9E203D0EFBE4}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5C19EEF3-6D99-4E8C-9474-1E1241AC1A3A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{32AC44CD-692F-4241-85F0-58B63B505F02}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4E500461-9AF4-4A46-B0D1-709BB831B6D5}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{FDA718A0-F88B-40B1-913E-E4CF127B8F38}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{AD7DE63E-9C6D-45FC-AE2C-DC17AB786FA6}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B763DE90-F791-40F9-97F9-BA314A3896DF}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{63C2789E-FE0E-42BB-B029-FFD7379A37B6}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7DBFF88B-E5A8-469F-BDED-41BAAEBF1C0F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3E40BEFC-6D02-4D15-94CA-88E86937035F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{499ED34E-039B-47C9-9B89-7B86D9AA6531}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{B6C7CA36-581B-4AAF-B38F-0302CC70FB95}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8B6E2EFA-39EC-4576-901A-82CCEA04C85A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9308,7 +9308,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7BD986A-03D4-42BB-A274-1928A20F5D2D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37112F3F-4759-4604-A4AB-2C0FD68F5EEA}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10609,17 +10609,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{908135E6-95DE-4307-9D4D-CEFCEF307676}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AE240E29-71E0-47A1-A07E-10F14D456025}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{334A48B7-6FA8-413B-8049-96E651EAC9E6}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D5225E0F-8F19-4A68-9460-A1544A59E273}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0C3BF30E-A44F-4CBE-935F-9DCE2A32CBD5}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{459A8648-2510-4BBC-880F-2BE9EDC46D29}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8C8625EB-5CDE-4113-A376-41B8F4917476}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F5D693A0-99F0-4FA6-BEA4-2A3148991907}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{01CC20EF-5834-4630-8E73-C2E460ED6EAA}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{318947B0-BA7D-4975-9032-F542CAA07402}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{10D76164-C52F-4F4E-9D1B-472B2AA99D76}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3991B7D8-001F-401A-B6C8-A05A9F911DDA}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AA46A3C7-384C-42B7-AF1D-E23A867A2F84}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D0D86CF2-BEA3-459A-903F-AFD08E7B8FC4}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D8647630-02BC-4E92-A1E3-5E9C8F339FF6}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4F7792EE-7716-44E3-9189-4EB85B8CDA9B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{20C1869B-5C39-4EEF-9B14-D9DA060C30FB}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{901268F4-68D1-42FA-B18F-720C16800DD5}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CFDBB988-EB92-4DF8-973D-6F7CD09214E9}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{0EA6B93F-797A-4F6B-85F0-5AD45A119CB9}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{77BED5EC-D474-4E9D-ABBD-E98B5166B740}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{74C4FF55-8865-460D-A7F3-C092B3AA4266}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10632,7 +10632,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A072C3CE-36ED-4184-96A0-4EF799A3B8C6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17CE5808-E1A9-4002-AF7C-508E8B468F2E}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11933,17 +11933,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{01DF37A7-025D-46CD-A7BE-AF5B0F3A831B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{822497D5-2C85-42C3-A519-4F48AA1D7145}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1C6E1A2D-1C9A-4165-A559-B0B3446ED660}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0864D103-8B64-46C3-88BA-5DF43E6EEA81}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E7A63CB0-8065-4B46-9045-5D91102E725F}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F32559C7-BE49-45C6-BE3E-26164042C940}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5C912D67-8107-4BEE-AFDA-3716C401E4E1}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{80016AFA-638C-4B6F-88C2-291F16AE0B65}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{A2ABC63F-3BCD-44A5-BDC1-B06982B8041D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{3CA62F04-C586-4377-AE74-9C59136C1A11}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{22DDAA3F-5D2E-474C-8716-E682B8E9DED5}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B395CD17-4187-488D-B587-2BB910A4F071}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CE73C699-98FD-4777-9F38-24BDCD3E1878}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{AC2111F5-52BB-4042-B326-D4CB9627A80A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{AC5520D5-3CD4-48DC-AD54-25DABBEEC72F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5BA3F8BD-367F-4EA1-BD78-35368D8798F5}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2419E67E-CE1A-451B-AADA-E5A168B89272}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FDA3F664-9B98-4FBF-B234-38C80E9669F9}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F04C70EE-11E1-4AF7-902E-E104618E9A8C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{7579BC97-11B0-4291-936B-3801296B41C4}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{748FE7D8-26FB-4C90-9809-FCA5AF447CBA}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DA898189-DAB8-4606-9862-0A8D969A1C7B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11956,7 +11956,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47AABBB2-DF3D-4816-89D0-8F34CC8E7A6E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51841EB8-E727-4BCC-9112-6DD252AB53B3}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13257,17 +13257,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DCFE1D21-E9A5-4041-A04B-A335249ED4D0}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{03B9DCAC-EFFB-4AE4-BBF8-98C1D8C45027}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{94036F17-9B5D-4C57-9895-87A8F044DD48}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9E300E09-A02D-4AD8-A07A-FA4B865E7677}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{42CB0F20-3E5E-48AE-891C-DEE56546E0D8}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E7E4F378-87A6-47BC-B808-27F71F912B72}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0C023D26-D182-45F2-AB93-0D7DDC51DA15}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D0FF8E97-42ED-4A98-A320-3F498CC4946C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{589CE7DD-1D86-40DA-AE5A-BA510EB1927F}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{9E5E097D-7A01-4D66-A8E0-5689B50A5D4F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{26E532E0-0F34-4099-91D0-455CADD89C18}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E61EBB9E-1B6C-4325-AEFE-7A8F2F9C34A0}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{12DBD379-77A0-4C2D-9351-0AFC2BFA6AB9}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{4C7A5843-90E6-41A9-BA4E-073AFFB69C6B}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9B0B4A02-6A1E-47AA-A849-D560A0519298}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F3D255CE-F040-4DD2-AD10-AAD43972C589}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6A5CB3C6-FDAA-4598-A7E6-A7CE39F18806}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2D02D825-4D19-4E2F-BB70-14840DFD6A49}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{55C8CC12-7BB9-4342-8037-05DAA3AB8784}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{D5992AB9-1065-43A8-A83D-D53163A599F0}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{55500D67-ACF4-438E-AF05-8EEE602C66B9}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AF74D98E-0A79-43F7-9EE1-7F8384FCD043}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13280,7 +13280,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FFC5023-6303-4E4D-876B-10CF90F8B97B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D5C71E4-CC32-4B43-8CAF-D7CBB2041268}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14581,17 +14581,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C6C715E7-DD01-44FD-9FFA-0196E9A80DFC}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FA150D00-677F-40A1-940E-0D0C2F122632}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{FB30B811-2662-4B0A-ABD8-0F4292E4BDD9}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B775A7D6-619D-41EA-BD72-4170F18C9198}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{145295DF-DAE0-427B-87C9-33C4CE22C81D}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{69647E67-6E33-4A23-A309-298A3FDD47A5}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{89CFEF4E-BCA5-46F5-AA78-E49003098D76}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5653BB2E-9674-47D2-95B2-F6F510F45F10}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{B38FEC7C-36C1-45FB-8397-11C689F85B60}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{DDB740FF-EC84-4394-869F-15A54336028C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C982478A-EE73-4984-8F36-779C58F3E118}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DC3C11B6-B1AA-4FC2-A5BC-324987EADCD6}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{099089A9-C118-465D-9098-957010F9109A}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0A95B040-B35D-4492-909D-3993792A5B1A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D69C08B8-72A2-430F-86D6-ECE97A46F6C0}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{54F4EE13-5035-4DFB-B87B-4086511D7653}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D94167C4-1C5B-4F8A-A145-7248B3649009}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F098FC00-8D79-46CA-A47F-6908E2F5D7F8}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0B60CE25-4092-48DA-B1BF-DBD1E91207E3}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{19514F82-79AA-4BF5-8FE7-59D47D5E95CE}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{C426D6AD-C67D-4177-9C0D-0B42C22E8226}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1B5C3DF7-EDE9-4030-91B9-50659A2CFAC0}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14604,7 +14604,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1C70221-7E41-445F-B1F7-A9ECA4585897}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA9CA031-8876-4CAA-A1BF-CF73FD823FFF}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -15906,17 +15906,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{513C41CF-F81D-4CD2-BC6A-C3CB87BC33D1}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5E611268-68CD-4601-A91A-AC11B961441C}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{24BA5754-FDE0-4EA7-85A5-2C769BE88E6B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6E5E0B27-6155-4EAE-B116-257DCAAE34CD}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C5A9D9E5-8FEC-4582-80F5-977E04311F38}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A96D3FE1-53A6-4D3F-9FAB-17495047322A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7371C29A-A3B8-4129-A4A8-5F4A065B54E3}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E38DAF7F-BB10-40E7-8BAF-D13B843AD12F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{0AD7AA7F-9FF9-4E34-B6B1-D91554061473}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{FB9E161A-54A9-44AA-B724-F509044E8E1F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EEAE2D35-E115-4719-832D-68249C60326A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D0073A99-6824-4F1C-967D-0D88434487D8}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{22289177-CF3B-4725-A9C3-8A3242027B92}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{5747F0FC-1EB5-46D8-9CC3-B15244532555}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{AA0BE4D5-B6EC-41DB-B436-0C6E4F999779}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{61F7DE46-F9AA-4EDF-B274-4A6E11504BF1}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{14A33073-2F1E-4C22-8C03-68017CED0DC6}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E3CA3480-9A0F-4A07-AF97-82C5BF2BBA05}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{15030259-5955-4E77-8C4C-FC02CCA72CA5}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{FABDE5D7-EA30-426D-9539-6A3E31849A97}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{45117F21-EE44-4E93-B696-500AF40DF1CE}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{622CCDDB-5BCB-47EC-B7F3-D0B8CBD46160}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15929,7 +15929,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF96F95B-BC10-469B-998B-5D01229E45E8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A106C781-A2D7-4397-80AE-A627C33E1FB8}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -17231,17 +17231,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AF87ADF1-1A0C-4EB2-BFD2-D57091569605}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F0F51BAE-99A7-4E09-9621-8FC351F7EF71}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D6CF2F3C-A2F5-42F4-9C8C-64822D7AD976}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A1D76732-4B0F-428A-AEA1-072D1BDDF029}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{ECB52477-287F-4C45-B90B-EA3B478D8A1D}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{66CA7601-83BE-48E6-95B2-D2DFAA9FDC95}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F67AF33A-5758-4097-B013-883223197D10}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E4DAB83B-380C-434B-9B71-1B7D7B28407B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{75E855B8-C87D-4831-9595-32D0151BBC07}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{9F2ED8F9-960B-4346-A929-791EE1F1A5BD}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1794067D-2010-40D7-BFEF-8913C1BEA3C2}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9E31E880-4A9C-4DDA-9903-F64BAC50CD2E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A5718B47-2726-4FFB-9326-0546BE8292A1}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{460CACC2-08E0-4497-BEBC-F0AD1129C330}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C764DE38-C490-4D48-AA34-D1145CD7C355}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{58FA825C-79CB-47A8-98C3-5F2AF9A546FE}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{090AF151-5146-446A-A924-9FCC286CB7F1}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5EC014E0-B293-4358-8B72-4C5F04558F9C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E9877E9B-FA69-48A6-8E75-1333B2F4E32C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{898EB169-9064-47CE-83A6-F697AC7A020A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{611516AF-CEFA-4B2E-90D3-D3E38BA25981}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{09F2BD2A-625E-4988-93AD-B001A5D7FA51}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
